--- a/biology/Botanique/Crosse_de_fougère/Crosse_de_fougère.xlsx
+++ b/biology/Botanique/Crosse_de_fougère/Crosse_de_fougère.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Crosse_de_foug%C3%A8re</t>
+          <t>Crosse_de_fougère</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les crosses de fougère ou têtes de violon (ou tête-de-violon, sans « s » à « violon » en cas de pluriel)[1], est le nom donné au Canada aux jeunes pousses de fougères comestibles, principalement la fougère-à-l'autruche[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les crosses de fougère ou têtes de violon (ou tête-de-violon, sans « s » à « violon » en cas de pluriel), est le nom donné au Canada aux jeunes pousses de fougères comestibles, principalement la fougère-à-l'autruche.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Crosse_de_foug%C3%A8re</t>
+          <t>Crosse_de_fougère</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son nom lui vient du fait que lorsque les jeunes frondes commencent à pousser, elles ont la forme d'une crosse de violon (préfoliaison circinée), qui se déroule ensuite progressivement. Bien qu'il s'agisse d'un calque de l'anglais « fiddlehead », son usage est accepté tant dans le langage courant que pour l’étiquetage[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son nom lui vient du fait que lorsque les jeunes frondes commencent à pousser, elles ont la forme d'une crosse de violon (préfoliaison circinée), qui se déroule ensuite progressivement. Bien qu'il s'agisse d'un calque de l'anglais « fiddlehead », son usage est accepté tant dans le langage courant que pour l’étiquetage.
 </t>
         </is>
       </c>
